--- a/autoConditions/train1Block8.xlsx
+++ b/autoConditions/train1Block8.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/15_kopota.wav</t>
+          <t>trainaudio/11_tokiko.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/15_barrel.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/11_tokiko.wav</t>
+          <t>trainaudio/22_kakoki.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/27_pakapa.wav</t>
+          <t>trainaudio/13_kopopi.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/12_pokika.wav</t>
+          <t>trainaudio/09_tipata.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/12_pie.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/07_pitapi.wav</t>
+          <t>trainaudio/10_tokiti.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/100_bicycle.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/21_papika.wav</t>
+          <t>trainaudio/25_tapapi.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/21_cheese.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block8.xlsx
+++ b/autoConditions/train1Block8.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/11_tokiko.wav</t>
+          <t>trainingaudio/03_kikita3.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/22_kakoki.wav</t>
+          <t>trainingaudio/11_tokiko1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/22_egg.png</t>
+          <t>pngimages/11_compass.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/13_kopopi.wav</t>
+          <t>trainingaudio/25_tapapi1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/25_apple.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/09_tipata.wav</t>
+          <t>trainingaudio/18_popata2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/18_donut.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/10_tokiti.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/100_bicycle.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/25_tapapi.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block8.xlsx
+++ b/autoConditions/train1Block8.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/03_kikita3.wav</t>
+          <t>trainingaudio/19_papipi1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/11_tokiko1.wav</t>
+          <t>trainingaudio/14_pokoto1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/11_compass.png</t>
+          <t>pngimages/14_coffee.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/25_tapapi1.wav</t>
+          <t>trainingaudio/10_tokiti1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/25_apple.png</t>
+          <t>pngimages/10_backpack.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/18_popata2.wav</t>
+          <t>trainingaudio/08_tipako2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/18_donut.png</t>
+          <t>pngimages/08_bell.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/16_kotapi2.wav</t>
+          <t>trainingaudio/02_pitito3.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/10_tokiti1.wav</t>
+          <t>trainingaudio/12_pokika3.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/10_backpack.png</t>
+          <t>pngimages/12_pie.png</t>
         </is>
       </c>
     </row>
